--- a/biology/Zoologie/Aporrectodea_caliginosa/Aporrectodea_caliginosa.xlsx
+++ b/biology/Zoologie/Aporrectodea_caliginosa/Aporrectodea_caliginosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aporrectodea caliginosa est une espèce de vers de la famille des Lumbricidae. C'est un ver de terre qui fait partie des endogés, c'est-à-dire qui creusent des galeries horizontales dans le sol[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aporrectodea caliginosa est une espèce de vers de la famille des Lumbricidae. C'est un ver de terre qui fait partie des endogés, c'est-à-dire qui creusent des galeries horizontales dans le sol.
 </t>
         </is>
       </c>
@@ -511,13 +523,50 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce a été décrite pour la première fois en 1826 par le zoologiste français Jules-César Savigny (1777-1851). L'épithète spécifique « caliginosa » vient du latin caligo et signifie obscure, sombre, ténébreux. 
-Liste des sous-espèces
-Selon BioLib                    (28 mai 2019)[2] et NCBI  (28 mai 2019)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite pour la première fois en 1826 par le zoologiste français Jules-César Savigny (1777-1851). L'épithète spécifique « caliginosa » vient du latin caligo et signifie obscure, sombre, ténébreux. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Aporrectodea_caliginosa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aporrectodea_caliginosa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (28 mai 2019) et NCBI  (28 mai 2019) :
 sous-espèce Aporrectodea caliginosa caliginosa (Savigny, 1826)
-Selon GBIF       (20 août 2021)[5] :
+Selon GBIF       (20 août 2021) :
 Aporrectodea caliginosa subsp. trapezoides (Dugés, 1828)
 Aporrectodea caliginosa subsp. hellenica Tzelepe, 1943
 Aporrectodea caliginosa subsp. cisterciana Bouché, 1972
